--- a/File_list_explanation.xlsx
+++ b/File_list_explanation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Desktop/COVID19_20200413/github_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Desktop/COVID19_20200413/COVID19_GIST_HSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACF7C10-1128-D44A-9E9F-1FD2F5F0DFF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E769DCA-159B-334C-88F8-604C63F5BBD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="460" windowWidth="23860" windowHeight="14640" xr2:uid="{9B7E46E1-AA50-5946-B1F7-3321E1F7C86B}"/>
+    <workbookView xWindow="5540" yWindow="1700" windowWidth="23860" windowHeight="14640" xr2:uid="{9B7E46E1-AA50-5946-B1F7-3321E1F7C86B}"/>
   </bookViews>
   <sheets>
     <sheet name="File_list" sheetId="1" r:id="rId1"/>
@@ -645,371 +645,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B444A79C-1DA2-F142-9008-64E4F3A49B4E}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" customWidth="1"/>
-    <col min="3" max="3" width="74.33203125" customWidth="1"/>
-    <col min="4" max="4" width="90.33203125" customWidth="1"/>
+    <col min="2" max="2" width="74.33203125" customWidth="1"/>
+    <col min="3" max="3" width="90.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
       <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
       <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
       <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
       <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
       <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
       <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
       <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
       <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
       <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
       <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
       <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
       <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
       <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
       <c r="C27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
       <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
       <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
       <c r="C30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
       <c r="C31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
       <c r="C32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
       <c r="C35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
       <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
       <c r="C37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
       <c r="C38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
       <c r="C39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
       <c r="C40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C47" s="1" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
       <c r="C49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
       <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" t="s">
         <v>83</v>
       </c>
     </row>
